--- a/MiseAJour_Contenu_Evenement/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/MiseAJour_Contenu_Evenement/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T10:20:41+00:00</t>
+    <t>2025-01-21T11:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MiseAJour_Contenu_Evenement/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/MiseAJour_Contenu_Evenement/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:11:15+00:00</t>
+    <t>2025-01-27T09:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
